--- a/Departments/GA.xlsx
+++ b/Departments/GA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current Project\Course Requisites\DEPTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F56DE3EA-CB49-45B2-AAE2-E6AF53F3A62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A47624D-DA3A-4EE2-902C-F29C80ADB8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8F846A66-2257-4064-8D69-7FF17C61436E}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{8F846A66-2257-4064-8D69-7FF17C61436E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,12 +51,6 @@
     <t>Course_Name</t>
   </si>
   <si>
-    <t>PREREQ_COURSES</t>
-  </si>
-  <si>
-    <t>COREQ_COURSES</t>
-  </si>
-  <si>
     <t>Acad_Group</t>
   </si>
   <si>
@@ -166,6 +160,12 @@
   </si>
   <si>
     <t>GA 400 - Selected Topics in Global Asia</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>CoRequisites</t>
   </si>
 </sst>
 </file>
@@ -520,7 +520,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I14"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -539,366 +539,366 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
         <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
         <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Departments/GA.xlsx
+++ b/Departments/GA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpattani\Documents\Course_Requisites\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A47624D-DA3A-4EE2-902C-F29C80ADB8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A429AE9-3D4B-49EC-8838-AE792A3D9956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{8F846A66-2257-4064-8D69-7FF17C61436E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8F846A66-2257-4064-8D69-7FF17C61436E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="41">
   <si>
     <t>Course_Code</t>
   </si>
@@ -87,9 +87,6 @@
     <t>GA 211 - Asian Migrations Across the Globe</t>
   </si>
   <si>
-    <t>REQ-15 units. Breadth-Humanities</t>
-  </si>
-  <si>
     <t>GA301</t>
   </si>
   <si>
@@ -133,9 +130,6 @@
   </si>
   <si>
     <t>GA 210 - How Asia Became Global: Empire, Migration, and Globalization in the Making of Modern Asia</t>
-  </si>
-  <si>
-    <t>REQ-15 units. Breadth-Humanities.</t>
   </si>
   <si>
     <t>GA302</t>
@@ -520,7 +514,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -539,10 +533,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -582,7 +576,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -591,7 +585,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -604,14 +598,11 @@
       </c>
       <c r="H3" t="s">
         <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -620,7 +611,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -637,7 +628,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -646,7 +637,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -659,14 +650,11 @@
       </c>
       <c r="H5" t="s">
         <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -675,7 +663,7 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -692,7 +680,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -701,7 +689,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -718,7 +706,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -727,7 +715,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -744,7 +732,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -753,7 +741,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -770,7 +758,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -779,7 +767,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -794,12 +782,12 @@
         <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -808,7 +796,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -825,7 +813,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -834,7 +822,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -877,7 +865,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -886,7 +874,7 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
